--- a/docs/テスト/簡易テストケース.xlsx
+++ b/docs/テスト/簡易テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/卒業制作/テストケース/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D278B0E-896F-44D8-B6D0-705349803632}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69486B37-AD91-499C-9516-EE8C84B2D8CE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -120,29 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示されるが入力項目とエラーの順番が違う</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>予約内容がDBに保存される</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,57 +166,61 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TOPのメニューの画像上のFood,Drink,Seasonal文字が小さい</t>
-    <rPh sb="9" eb="11">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
+    <t>フッターのアンカー指定修正および、
+モバイルメニュー押下時にメニューを閉じる処理を追加し解消</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPメニュー画像上のカテゴリ文字サイズ・フォントを調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーを上部にまとめ、入力項目順で表示するよう調整</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部文字の改行位置に違和感はあるが、操作・視認性に問題はなし</t>
+    <rPh sb="0" eb="1">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
       <t>モジ</t>
     </rPh>
-    <rPh sb="35" eb="36">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PCのフッターがAccessとcontact以外のリンクが開けない
-トップのモバイルメニューのAbout usとフッターのReservationのリンクが開けない</t>
-    <rPh sb="22" eb="24">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字の改行位置がおかしい箇所があるが、途切れてないので直すかは要検討</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="4" eb="6">
       <t>カイギョウ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="6" eb="8">
       <t>イチ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トギ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナオ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ヨウケントウ</t>
+    <rPh sb="9" eb="12">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>シニンセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -330,6 +311,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,7 +605,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -750,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -792,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -806,7 +791,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -820,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -867,10 +852,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -881,10 +866,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -895,10 +880,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/テスト/簡易テストケース.xlsx
+++ b/docs/テスト/簡易テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/卒業制作/テストケース/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69486B37-AD91-499C-9516-EE8C84B2D8CE}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D58561-B192-45C1-8DB3-AD0C893FE1A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -222,6 +222,14 @@
     <rPh sb="24" eb="26">
       <t>モンダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ投稿：必須項目未入力でエラー表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休業日登録：必須項目未入力でエラー表示</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="A1:D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,10 +818,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -822,10 +830,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -834,10 +842,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -846,43 +854,67 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/テスト/簡易テストケース.xlsx
+++ b/docs/テスト/簡易テストケース.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/卒業制作/テストケース/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/workspace/workspace-sugimura/Portfolio/docs/テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2D58561-B192-45C1-8DB3-AD0C893FE1A8}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39673810-4FA4-437F-B210-45B64C7AA3FD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -319,10 +319,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,6 +606,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -921,5 +920,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/テスト/簡易テストケース.xlsx
+++ b/docs/テスト/簡易テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/workspace/workspace-sugimura/Portfolio/docs/テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39673810-4FA4-437F-B210-45B64C7AA3FD}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{47E9841A-8C14-4084-B677-3DE33F23FD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9614B320-8FF1-43A0-9EC0-891A267493FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -230,6 +230,38 @@
   </si>
   <si>
     <t>休業日登録：必須項目未入力でエラー表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本テストケースは、本番環境に反映後、実際の操作を想定した手動テストとして実施した結果をまとめたものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	ログイン画面が表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未ログインで管理画面にアクセスするとログイン画面にリダイレクトされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しい管理者アカウントでログインできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、管理画面トップが表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト後、戻る操作で管理画面にアクセスできない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -267,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,11 +322,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -303,6 +344,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -319,6 +363,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,52 +657,48 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C15" sqref="C15:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="60.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="74.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -666,33 +710,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -701,36 +745,36 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -742,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -751,10 +795,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -763,10 +807,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -775,52 +819,46 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -829,10 +867,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -841,10 +879,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -853,10 +891,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -865,59 +903,152 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
